--- a/biology/Médecine/Thérapeute_en_réadaptation_physique/Thérapeute_en_réadaptation_physique.xlsx
+++ b/biology/Médecine/Thérapeute_en_réadaptation_physique/Thérapeute_en_réadaptation_physique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9rapeute_en_r%C3%A9adaptation_physique</t>
+          <t>Thérapeute_en_réadaptation_physique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,17 +490,19 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le thérapeute en réadaptation physique (TRP) est un professionnel de la santé qui œuvre dans le domaine de la physiothérapie. Il travaille conjointement avec le physiothérapeute ainsi que plusieurs autres professionnels de la santé, tels que les neurologues, les physiatres, les orthopédistes, les rhumatologues, les psychomotriciens, les ergothérapeutes et les inhalothérapeutes.
 Cette profession est reconnue uniquement dans la province du Québec.
-Les tâches d’un TRP sont précises et élaborées dans un nouveau règlement (94 m)[1] adopté en octobre 2011. Celui-ci veut que tous patients reçus par le TRP aient soit :
+Les tâches d’un TRP sont précises et élaborées dans un nouveau règlement (94 m) adopté en octobre 2011. Celui-ci veut que tous patients reçus par le TRP aient soit :
 préalablement été évalués par un physiothérapeute ou ;
 reçu un diagnostic médical non limité aux symptômes.
 De plus, les responsabilités du TRP ne seront pas les mêmes selon le type d’atteinte présenté par le patient. Ainsi, pour certains cas, le TRP pourra déterminer la liste de problèmes, les objectifs de traitements, les contre-indications ou précautions, effectuer les choix des modalités de traitement et dispenser le traitement. Alors que pour d’autres types d’atteinte, le travail du TRP se limitera à appliquer les modalités de traitement confiées par le physiothérapeute.
 Les atteintes peuvent être d’ordre musculo-squelettique, cardio-respiratoire et neurologique. Les tendinites, les bursites, les séquelles de fractures et les entorses, sont des exemples de troubles observés. Le travail du TRP consiste donc à améliorer les capacités des patients, maintenir les acquis, diminuer la douleur, renforcer les articulations ainsi que les muscles, etc.
 Les thérapeutes en réadaptation physique utilisent plusieurs techniques pour traiter leurs patients, soient: la thérapie manuelle, les exercices visant la réadaptation, l'électrothérapie, la chaleur, l'hydrothérapie, les massages et plusieurs autres. Les tables de massage, les tables de traction, les ballons, les appareils cardiovasculaires ainsi que plusieurs autres appareils sont utilisés afin de faciliter la réadaptation physique.
-Le TRP fait partie de l'Ordre professionnel de la physiothérapie du Québec et il doit en être membre pour bénéficier du titre réservé[2].
+Le TRP fait partie de l'Ordre professionnel de la physiothérapie du Québec et il doit en être membre pour bénéficier du titre réservé.
 </t>
         </is>
       </c>
@@ -501,7 +513,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9rapeute_en_r%C3%A9adaptation_physique</t>
+          <t>Thérapeute_en_réadaptation_physique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,24 +531,130 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Contrairement aux études en physiothérapie qui se donnent à l'université, le programme de réadaptation physique est offert au Cégep sur une période de 3 ans.
-Préalables
-Diplôme d'études secondaires (DES)
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contrairement aux études en physiothérapie qui se donnent à l'université, le programme de réadaptation physique est offert au Cégep sur une période de 3 ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Thérapeute_en_réadaptation_physique</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Th%C3%A9rapeute_en_r%C3%A9adaptation_physique</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Préalables</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diplôme d'études secondaires (DES)
 Mathématiques 436 ou CST 4e 
 Physique 534 ou Physique 5e
-Établissements d'enseignement au Québec offrant le programme
-Centre matapédien d'études collégiales (Amqui, Bas-Saint-Laurent)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Thérapeute_en_réadaptation_physique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Th%C3%A9rapeute_en_r%C3%A9adaptation_physique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Établissements d'enseignement au Québec offrant le programme</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Centre matapédien d'études collégiales (Amqui, Bas-Saint-Laurent)
 Cégep Garneau (Québec)
 Cégep de Sherbrooke (Estrie)
 Cégep Montmorency  (Laval)
 Collège Ellis (Mauricie)
 Cégep Marie-Victorin (Montréal)
 Cégep de Chicoutimi (Saguenay Lac-Saint-Jean)
-Dawson College (Westmount, Montréal)
-Conditions d'admission
-Être titulaire d'un diplôme d'études secondaires (DES)
+Dawson College (Westmount, Montréal)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Thérapeute_en_réadaptation_physique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Th%C3%A9rapeute_en_r%C3%A9adaptation_physique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Conditions d'admission</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Être titulaire d'un diplôme d'études secondaires (DES)
 OU
 Être titulaire d'un diplôme d'études professionnelles (DEP) et avoir réussi les cours suivants :
 langue d'enseignement de 5e secondaire
@@ -551,31 +669,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Th%C3%A9rapeute_en_r%C3%A9adaptation_physique</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Thérapeute_en_réadaptation_physique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Th%C3%A9rapeute_en_r%C3%A9adaptation_physique</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Salaire et conditions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le salaire minimum moyen d'un TRP se situe entre 38 000 et 42 999 $ et le salaire maximum moyen est de 53 000 à 58 999 $ (donnés de 2010). Celui-ci varie d'un établissement privé à un établissement public. L'échelle de salaire s'établit selon le nombre d'années d'expérience, c'est-à-dire qu'il augmente avec les années de pratique.
 Le salaire en milieu privé est généralement légèrement inférieur au départ.
@@ -583,31 +703,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Th%C3%A9rapeute_en_r%C3%A9adaptation_physique</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Thérapeute_en_réadaptation_physique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Th%C3%A9rapeute_en_r%C3%A9adaptation_physique</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Secteur d'activité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le TRP peut travailler dans plusieurs endroits, tels que :
 Cliniques privées
@@ -623,31 +745,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Th%C3%A9rapeute_en_r%C3%A9adaptation_physique</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Thérapeute_en_réadaptation_physique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Th%C3%A9rapeute_en_r%C3%A9adaptation_physique</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Qualités requises</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Le TRP doit :[Interprétation personnelle ?]
 Être autonome
